--- a/output/1Y_P30_KFSDIV.xlsx
+++ b/output/1Y_P30_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.962</v>
       </c>
       <c r="C2" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D2" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.2659</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="F3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="H3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1215</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.4103</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E4" s="1">
-        <v>1531.4981</v>
+        <v>1528.4328</v>
       </c>
       <c r="F4" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="H4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0591</v>
+        <v>13.0853</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0118</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>12.3976</v>
       </c>
       <c r="C5" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D5" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E5" s="1">
-        <v>2337.2804</v>
+        <v>2332.6016</v>
       </c>
       <c r="F5" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="H5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8354</v>
+        <v>12.8612</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9310.825800000001</v>
+        <v>-9312.2052</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.001</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.9013</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E6" s="1">
-        <v>3143.8881</v>
+        <v>3137.5991</v>
       </c>
       <c r="F6" s="1">
-        <v>781.787</v>
+        <v>780.2134</v>
       </c>
       <c r="H6" s="1">
-        <v>40560.244</v>
+        <v>40398.1568</v>
       </c>
       <c r="I6" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="J6" s="1">
-        <v>41249.4182</v>
+        <v>41085.9516</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7231</v>
+        <v>12.7486</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10086.1468</v>
+        <v>-10085.9743</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0583</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.3527</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E7" s="1">
-        <v>3925.6751</v>
+        <v>3917.8124</v>
       </c>
       <c r="F7" s="1">
-        <v>755.3638</v>
+        <v>753.8379</v>
       </c>
       <c r="H7" s="1">
-        <v>52418.3624</v>
+        <v>52208.7686</v>
       </c>
       <c r="I7" s="1">
-        <v>603.0273999999999</v>
+        <v>601.8203999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>53021.3897</v>
+        <v>52810.589</v>
       </c>
       <c r="K7" s="1">
-        <v>50086.1468</v>
+        <v>50085.9743</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7586</v>
+        <v>12.7842</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10086.1468</v>
+        <v>-10085.9743</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0346</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.8804</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E8" s="1">
-        <v>4681.039</v>
+        <v>4671.6504</v>
       </c>
       <c r="F8" s="1">
-        <v>726.6467</v>
+        <v>725.1819</v>
       </c>
       <c r="H8" s="1">
-        <v>64974.6934</v>
+        <v>64714.5037</v>
       </c>
       <c r="I8" s="1">
-        <v>516.8806</v>
+        <v>515.8461</v>
       </c>
       <c r="J8" s="1">
-        <v>65491.574</v>
+        <v>65230.3498</v>
       </c>
       <c r="K8" s="1">
-        <v>60172.2935</v>
+        <v>60171.9487</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8545</v>
+        <v>12.8802</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1766.5538</v>
+        <v>1763.0156</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8319.593000000001</v>
+        <v>-8322.958699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0392</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.6268</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E9" s="1">
-        <v>5407.6857</v>
+        <v>5396.8322</v>
       </c>
       <c r="F9" s="1">
-        <v>713.7212</v>
+        <v>712.2343</v>
       </c>
       <c r="H9" s="1">
-        <v>79097.1367</v>
+        <v>78780.79790000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2197.2877</v>
+        <v>2192.8873</v>
       </c>
       <c r="J9" s="1">
-        <v>81294.4244</v>
+        <v>80973.6853</v>
       </c>
       <c r="K9" s="1">
-        <v>70258.4403</v>
+        <v>70257.923</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9923</v>
+        <v>13.0184</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10439.4575</v>
+        <v>-10438.5775</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0769</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>15.3636</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E10" s="1">
-        <v>6121.4069</v>
+        <v>6109.0665</v>
       </c>
       <c r="F10" s="1">
-        <v>679.4929</v>
+        <v>678.0762999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>94046.8469</v>
+        <v>93669.70630000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1757.8301</v>
+        <v>1754.3099</v>
       </c>
       <c r="J10" s="1">
-        <v>95804.677</v>
+        <v>95424.0162</v>
       </c>
       <c r="K10" s="1">
-        <v>80697.89780000001</v>
+        <v>80696.50049999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1829</v>
+        <v>13.2093</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10439.4575</v>
+        <v>-10438.5775</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0494</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.8711</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E11" s="1">
-        <v>6800.8998</v>
+        <v>6787.1428</v>
       </c>
       <c r="F11" s="1">
-        <v>752.6049</v>
+        <v>751.0362</v>
       </c>
       <c r="H11" s="1">
-        <v>94335.9614</v>
+        <v>93957.1329</v>
       </c>
       <c r="I11" s="1">
-        <v>1318.3726</v>
+        <v>1315.7324</v>
       </c>
       <c r="J11" s="1">
-        <v>95654.334</v>
+        <v>95272.8653</v>
       </c>
       <c r="K11" s="1">
-        <v>91137.3554</v>
+        <v>91135.07799999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.4008</v>
+        <v>13.4276</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2754.6331</v>
+        <v>2749.0799</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7684.8244</v>
+        <v>-7689.4975</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0959</v>
+        <v>-0.0963</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.1252</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E12" s="1">
-        <v>7553.5047</v>
+        <v>7538.179</v>
       </c>
       <c r="F12" s="1">
-        <v>836.5739</v>
+        <v>834.6428</v>
       </c>
       <c r="H12" s="1">
-        <v>106694.7645</v>
+        <v>106265.71</v>
       </c>
       <c r="I12" s="1">
-        <v>3633.5482</v>
+        <v>3626.2349</v>
       </c>
       <c r="J12" s="1">
-        <v>110328.3127</v>
+        <v>109891.9449</v>
       </c>
       <c r="K12" s="1">
-        <v>101576.8129</v>
+        <v>101573.6554</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4476</v>
+        <v>13.4746</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11816.7741</v>
+        <v>-11813.1174</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0442</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.1934</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>8390.078600000001</v>
+        <v>8372.821900000001</v>
       </c>
       <c r="F13" s="1">
-        <v>832.5542</v>
+        <v>830.6345</v>
       </c>
       <c r="H13" s="1">
-        <v>119083.7419</v>
+        <v>118601.022</v>
       </c>
       <c r="I13" s="1">
-        <v>1816.7741</v>
+        <v>1813.1174</v>
       </c>
       <c r="J13" s="1">
-        <v>120900.516</v>
+        <v>120414.1395</v>
       </c>
       <c r="K13" s="1">
-        <v>113393.587</v>
+        <v>113386.7729</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5152</v>
+        <v>13.5422</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11816.7741</v>
+        <v>-11813.1174</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0048</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>14.1176</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E14" s="1">
-        <v>9222.632799999999</v>
+        <v>9203.456399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9222.632799999999</v>
+        <v>-9203.456399999999</v>
       </c>
       <c r="H14" s="1">
-        <v>130201.4405</v>
+        <v>129671.1781</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>130201.4405</v>
+        <v>129671.1781</v>
       </c>
       <c r="K14" s="1">
-        <v>125210.3611</v>
+        <v>125199.8903</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5764</v>
+        <v>13.6036</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3775.5354</v>
+        <v>3767.7698</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133976.9758</v>
+        <v>133438.948</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.962</v>
       </c>
       <c r="C2" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D2" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.2659</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="F3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1215</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.4103</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E4" s="1">
-        <v>1531.4981</v>
+        <v>1528.4328</v>
       </c>
       <c r="F4" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0591</v>
+        <v>13.0853</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0118</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>12.3976</v>
       </c>
       <c r="C5" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D5" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E5" s="1">
-        <v>2337.2804</v>
+        <v>2332.6016</v>
       </c>
       <c r="F5" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8354</v>
+        <v>12.8612</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9310.825800000001</v>
+        <v>-9312.2052</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.001</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.9013</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E6" s="1">
-        <v>3143.8881</v>
+        <v>3137.5991</v>
       </c>
       <c r="F6" s="1">
-        <v>731.6903</v>
+        <v>745.7453</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40560.244</v>
+        <v>40398.1568</v>
       </c>
       <c r="I6" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="J6" s="1">
-        <v>41249.4182</v>
+        <v>41085.9516</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7231</v>
+        <v>12.7486</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9439.8292</v>
+        <v>-9640.3982</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0583</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.3527</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E7" s="1">
-        <v>3875.5784</v>
+        <v>3883.3443</v>
       </c>
       <c r="F7" s="1">
-        <v>617.8948</v>
+        <v>619.1319999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51749.4361</v>
+        <v>51749.4466</v>
       </c>
       <c r="I7" s="1">
-        <v>1249.345</v>
+        <v>1047.3965</v>
       </c>
       <c r="J7" s="1">
-        <v>52998.7811</v>
+        <v>52796.8432</v>
       </c>
       <c r="K7" s="1">
-        <v>49439.8292</v>
+        <v>49640.3982</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7568</v>
+        <v>12.7829</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8250.563899999999</v>
+        <v>-8283.6769</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0341</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.8804</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E8" s="1">
-        <v>4493.4732</v>
+        <v>4502.4764</v>
       </c>
       <c r="F8" s="1">
-        <v>549.6091</v>
+        <v>550.7266</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62371.2058</v>
+        <v>62371.0041</v>
       </c>
       <c r="I8" s="1">
-        <v>2998.7811</v>
+        <v>2763.7196</v>
       </c>
       <c r="J8" s="1">
-        <v>65369.9869</v>
+        <v>65134.7236</v>
       </c>
       <c r="K8" s="1">
-        <v>57690.3931</v>
+        <v>57924.0752</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8387</v>
+        <v>12.8649</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1744.0103</v>
+        <v>1747.505</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5884.7839</v>
+        <v>-5912.1114</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0376</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>14.6268</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E9" s="1">
-        <v>5043.0823</v>
+        <v>5053.203</v>
       </c>
       <c r="F9" s="1">
-        <v>426.33</v>
+        <v>427.1499</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73764.15670000001</v>
+        <v>73764.63619999999</v>
       </c>
       <c r="I9" s="1">
-        <v>7113.9972</v>
+        <v>6851.6082</v>
       </c>
       <c r="J9" s="1">
-        <v>80878.1539</v>
+        <v>80616.2444</v>
       </c>
       <c r="K9" s="1">
-        <v>65319.1872</v>
+        <v>65583.6915</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9522</v>
+        <v>12.9786</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6235.8433</v>
+        <v>-6260.352</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0731</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>15.3636</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E10" s="1">
-        <v>5469.4123</v>
+        <v>5480.3529</v>
       </c>
       <c r="F10" s="1">
-        <v>388.5897</v>
+        <v>389.3782</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>84029.863</v>
+        <v>84029.7035</v>
       </c>
       <c r="I10" s="1">
-        <v>10878.1539</v>
+        <v>10591.2562</v>
       </c>
       <c r="J10" s="1">
-        <v>94908.0169</v>
+        <v>94620.95970000001</v>
       </c>
       <c r="K10" s="1">
-        <v>71555.0306</v>
+        <v>71844.0436</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0828</v>
+        <v>13.1094</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5970.137</v>
+        <v>-5994.2432</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0443</v>
+        <v>0.0442</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.8711</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E11" s="1">
-        <v>5858.002</v>
+        <v>5869.7311</v>
       </c>
       <c r="F11" s="1">
-        <v>1351.2316</v>
+        <v>1353.9278</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81256.932</v>
+        <v>81257.0355</v>
       </c>
       <c r="I11" s="1">
-        <v>14908.0169</v>
+        <v>14597.0129</v>
       </c>
       <c r="J11" s="1">
-        <v>96164.9488</v>
+        <v>95854.0484</v>
       </c>
       <c r="K11" s="1">
-        <v>77525.1676</v>
+        <v>77838.2868</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2341</v>
+        <v>13.261</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2461.2355</v>
+        <v>2466.1588</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-16281.8325</v>
+        <v>-16351.9486</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0833</v>
+        <v>-0.0838</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>14.1252</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E12" s="1">
-        <v>7209.2336</v>
+        <v>7223.6589</v>
       </c>
       <c r="F12" s="1">
-        <v>578.2668</v>
+        <v>579.4197</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101831.8663</v>
+        <v>101831.9199</v>
       </c>
       <c r="I12" s="1">
-        <v>8626.1844</v>
+        <v>8245.0643</v>
       </c>
       <c r="J12" s="1">
-        <v>110458.0506</v>
+        <v>110076.9842</v>
       </c>
       <c r="K12" s="1">
-        <v>96268.2356</v>
+        <v>96656.3943</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3535</v>
+        <v>13.3805</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8168.1337</v>
+        <v>-8200.817300000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0404</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>14.1934</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>7787.5004</v>
+        <v>7803.0787</v>
       </c>
       <c r="F13" s="1">
-        <v>667.1335</v>
+        <v>668.5062</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110531.1075</v>
+        <v>110530.6093</v>
       </c>
       <c r="I13" s="1">
-        <v>10458.0506</v>
+        <v>10044.247</v>
       </c>
       <c r="J13" s="1">
-        <v>120989.1581</v>
+        <v>120574.8563</v>
       </c>
       <c r="K13" s="1">
-        <v>104436.3694</v>
+        <v>104857.2116</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4108</v>
+        <v>13.4379</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9468.8925</v>
+        <v>-9507.361800000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0044</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>14.1176</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E14" s="1">
-        <v>8454.6338</v>
+        <v>8471.5849</v>
       </c>
       <c r="F14" s="1">
-        <v>-8454.6338</v>
+        <v>-8471.5849</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119359.1388</v>
+        <v>119359.5482</v>
       </c>
       <c r="I14" s="1">
-        <v>10989.1581</v>
+        <v>10536.8852</v>
       </c>
       <c r="J14" s="1">
-        <v>130348.2969</v>
+        <v>129896.4333</v>
       </c>
       <c r="K14" s="1">
-        <v>113905.2618</v>
+        <v>114364.5734</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4725</v>
+        <v>13.4998</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3504.3752</v>
+        <v>3511.3854</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122863.5139</v>
+        <v>122870.9336</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0049</v>
+        <v>-0.0052</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.962</v>
       </c>
       <c r="C2" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D2" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.2659</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="F3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1215</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.4103</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E4" s="1">
-        <v>1531.4981</v>
+        <v>1528.4328</v>
       </c>
       <c r="F4" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0591</v>
+        <v>13.0853</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0118</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>12.3976</v>
       </c>
       <c r="C5" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D5" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E5" s="1">
-        <v>2337.2804</v>
+        <v>2332.6016</v>
       </c>
       <c r="F5" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8354</v>
+        <v>12.8612</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9310.825800000001</v>
+        <v>-9312.2052</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.001</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.9013</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E6" s="1">
-        <v>3143.8881</v>
+        <v>3137.5991</v>
       </c>
       <c r="F6" s="1">
-        <v>770.6403</v>
+        <v>784.7734</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40560.244</v>
+        <v>40398.1568</v>
       </c>
       <c r="I6" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="J6" s="1">
-        <v>41249.4182</v>
+        <v>41085.9516</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7231</v>
+        <v>12.7486</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9942.3393</v>
+        <v>-10144.9223</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0583</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.3527</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E7" s="1">
-        <v>3914.5285</v>
+        <v>3922.3724</v>
       </c>
       <c r="F7" s="1">
-        <v>635.489</v>
+        <v>636.7615</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52269.5244</v>
+        <v>52269.535</v>
       </c>
       <c r="I7" s="1">
-        <v>746.8348</v>
+        <v>542.8724999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>53016.3593</v>
+        <v>52812.4076</v>
       </c>
       <c r="K7" s="1">
-        <v>49942.3393</v>
+        <v>50144.9223</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7582</v>
+        <v>12.7843</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8485.4944</v>
+        <v>-8519.550499999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0345</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.8804</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E8" s="1">
-        <v>4550.0175</v>
+        <v>4559.1339</v>
       </c>
       <c r="F8" s="1">
-        <v>569.3446</v>
+        <v>570.5019</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63156.063</v>
+        <v>63155.8587</v>
       </c>
       <c r="I8" s="1">
-        <v>2261.3405</v>
+        <v>2023.322</v>
       </c>
       <c r="J8" s="1">
-        <v>65417.4035</v>
+        <v>65179.1807</v>
       </c>
       <c r="K8" s="1">
-        <v>58427.8337</v>
+        <v>58664.4727</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8412</v>
+        <v>12.8675</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1761.5378</v>
+        <v>1765.0676</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6141.193</v>
+        <v>-6169.5875</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0381</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>14.6268</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E9" s="1">
-        <v>5119.3621</v>
+        <v>5129.6359</v>
       </c>
       <c r="F9" s="1">
-        <v>446.7281</v>
+        <v>447.5883</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>74879.8858</v>
+        <v>74880.3726</v>
       </c>
       <c r="I9" s="1">
-        <v>6120.1474</v>
+        <v>5853.7345</v>
       </c>
       <c r="J9" s="1">
-        <v>81000.03320000001</v>
+        <v>80734.1072</v>
       </c>
       <c r="K9" s="1">
-        <v>66330.56449999999</v>
+        <v>66599.1278</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9568</v>
+        <v>12.9832</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6534.2021</v>
+        <v>-6559.8992</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.074</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>15.3636</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E10" s="1">
-        <v>5566.0902</v>
+        <v>5577.2242</v>
       </c>
       <c r="F10" s="1">
-        <v>410.4491</v>
+        <v>411.2815</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85515.18309999999</v>
+        <v>85515.0208</v>
       </c>
       <c r="I10" s="1">
-        <v>9585.945299999999</v>
+        <v>9293.8354</v>
       </c>
       <c r="J10" s="1">
-        <v>95101.1284</v>
+        <v>94808.85619999999</v>
       </c>
       <c r="K10" s="1">
-        <v>72864.7666</v>
+        <v>73159.027</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0908</v>
+        <v>13.1175</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6305.9752</v>
+        <v>-6331.4313</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0451</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.8711</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E11" s="1">
-        <v>5976.5392</v>
+        <v>5988.5057</v>
       </c>
       <c r="F11" s="1">
-        <v>1397.0839</v>
+        <v>1399.8718</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>82901.1735</v>
+        <v>82901.2791</v>
       </c>
       <c r="I11" s="1">
-        <v>13279.9701</v>
+        <v>12962.4041</v>
       </c>
       <c r="J11" s="1">
-        <v>96181.1436</v>
+        <v>95863.6832</v>
       </c>
       <c r="K11" s="1">
-        <v>79170.7418</v>
+        <v>79490.4583</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2469</v>
+        <v>13.2738</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2504.7406</v>
+        <v>2509.7509</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-16874.35</v>
+        <v>-16946.927</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0849</v>
+        <v>-0.0853</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.1252</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E12" s="1">
-        <v>7373.6232</v>
+        <v>7388.3774</v>
       </c>
       <c r="F12" s="1">
-        <v>611.5144</v>
+        <v>612.7338</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>104153.9017</v>
+        <v>104153.9566</v>
       </c>
       <c r="I12" s="1">
-        <v>6405.6201</v>
+        <v>6015.4771</v>
       </c>
       <c r="J12" s="1">
-        <v>110559.5218</v>
+        <v>110169.4337</v>
       </c>
       <c r="K12" s="1">
-        <v>98549.8324</v>
+        <v>98947.1361</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3652</v>
+        <v>13.3923</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8637.7637</v>
+        <v>-8672.328299999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0412</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>14.1934</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>7985.1376</v>
+        <v>8001.1113</v>
       </c>
       <c r="F13" s="1">
-        <v>705.9177</v>
+        <v>707.3691</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113336.2518</v>
+        <v>113335.741</v>
       </c>
       <c r="I13" s="1">
-        <v>7767.8564</v>
+        <v>7343.1489</v>
       </c>
       <c r="J13" s="1">
-        <v>121104.1082</v>
+        <v>120678.8898</v>
       </c>
       <c r="K13" s="1">
-        <v>107187.5961</v>
+        <v>107619.4644</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4234</v>
+        <v>13.4506</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10019.3719</v>
+        <v>-10060.0613</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0045</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>14.1176</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E14" s="1">
-        <v>8691.0553</v>
+        <v>8708.480299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8691.0553</v>
+        <v>-8708.480299999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122696.8417</v>
+        <v>122697.2626</v>
       </c>
       <c r="I14" s="1">
-        <v>7748.4845</v>
+        <v>7283.0875</v>
       </c>
       <c r="J14" s="1">
-        <v>130445.3262</v>
+        <v>129980.3502</v>
       </c>
       <c r="K14" s="1">
-        <v>117206.9681</v>
+        <v>117679.5257</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4859</v>
+        <v>13.5132</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3593.3119</v>
+        <v>3600.5001</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126290.1537</v>
+        <v>126297.7627</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.005</v>
+        <v>-0.0053</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.962</v>
       </c>
       <c r="C2" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D2" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.2659</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="F3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1215</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.4103</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E4" s="1">
-        <v>1531.4981</v>
+        <v>1528.4328</v>
       </c>
       <c r="F4" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0591</v>
+        <v>13.0853</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0118</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>12.3976</v>
       </c>
       <c r="C5" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D5" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E5" s="1">
-        <v>2337.2804</v>
+        <v>2332.6016</v>
       </c>
       <c r="F5" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8354</v>
+        <v>12.8612</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9310.825800000001</v>
+        <v>-9312.2052</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.001</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.9013</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E6" s="1">
-        <v>3143.8881</v>
+        <v>3137.5991</v>
       </c>
       <c r="F6" s="1">
-        <v>809.9809</v>
+        <v>824.1926999999999</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40560.244</v>
+        <v>40398.1568</v>
       </c>
       <c r="I6" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="J6" s="1">
-        <v>41249.4182</v>
+        <v>41085.9516</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7231</v>
+        <v>12.7486</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10449.8871</v>
+        <v>-10654.5041</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0583</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.3527</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E7" s="1">
-        <v>3953.869</v>
+        <v>3961.7918</v>
       </c>
       <c r="F7" s="1">
-        <v>653.4502</v>
+        <v>654.7586</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>52794.8266</v>
+        <v>52794.8373</v>
       </c>
       <c r="I7" s="1">
-        <v>239.2871</v>
+        <v>33.2907</v>
       </c>
       <c r="J7" s="1">
-        <v>53034.1136</v>
+        <v>52828.128</v>
       </c>
       <c r="K7" s="1">
-        <v>50449.8871</v>
+        <v>50654.5041</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7596</v>
+        <v>12.7858</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8725.324000000001</v>
+        <v>-8760.3429</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0348</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.8804</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E8" s="1">
-        <v>4607.3192</v>
+        <v>4616.5504</v>
       </c>
       <c r="F8" s="1">
-        <v>589.6025</v>
+        <v>590.8007</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63951.4329</v>
+        <v>63951.226</v>
       </c>
       <c r="I8" s="1">
-        <v>1513.963</v>
+        <v>1272.9478</v>
       </c>
       <c r="J8" s="1">
-        <v>65465.396</v>
+        <v>65224.1738</v>
       </c>
       <c r="K8" s="1">
-        <v>59175.2111</v>
+        <v>59414.847</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8437</v>
+        <v>12.87</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1779.241</v>
+        <v>1782.8063</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6404.6781</v>
+        <v>-6434.1683</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0386</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>14.6268</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E9" s="1">
-        <v>5196.9217</v>
+        <v>5207.3511</v>
       </c>
       <c r="F9" s="1">
-        <v>467.7969</v>
+        <v>468.6988</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>76014.3345</v>
+        <v>76014.8287</v>
       </c>
       <c r="I9" s="1">
-        <v>5109.2849</v>
+        <v>4838.7795</v>
       </c>
       <c r="J9" s="1">
-        <v>81123.6194</v>
+        <v>80853.6082</v>
       </c>
       <c r="K9" s="1">
-        <v>67359.1303</v>
+        <v>67631.8216</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9614</v>
+        <v>12.9878</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6842.3712</v>
+        <v>-6869.2958</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.075</v>
+        <v>0.07480000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>15.3636</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E10" s="1">
-        <v>5664.7186</v>
+        <v>5676.0499</v>
       </c>
       <c r="F10" s="1">
-        <v>433.1538</v>
+        <v>434.0319</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87030.4703</v>
+        <v>87030.3051</v>
       </c>
       <c r="I10" s="1">
-        <v>8266.913699999999</v>
+        <v>7969.4837</v>
       </c>
       <c r="J10" s="1">
-        <v>95297.38400000001</v>
+        <v>94999.78879999999</v>
       </c>
       <c r="K10" s="1">
-        <v>74201.5015</v>
+        <v>74501.1174</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0989</v>
+        <v>13.1255</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6654.8024</v>
+        <v>-6681.6605</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0458</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.8711</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E11" s="1">
-        <v>6097.8724</v>
+        <v>6110.0818</v>
       </c>
       <c r="F11" s="1">
-        <v>1444.581</v>
+        <v>1447.4637</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>84584.19809999999</v>
+        <v>84584.30590000001</v>
       </c>
       <c r="I11" s="1">
-        <v>11612.1113</v>
+        <v>11287.8232</v>
       </c>
       <c r="J11" s="1">
-        <v>96196.3094</v>
+        <v>95872.12910000001</v>
       </c>
       <c r="K11" s="1">
-        <v>80856.3039</v>
+        <v>81182.7779</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2598</v>
+        <v>13.2867</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2549.1234</v>
+        <v>2554.2224</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-17488.804</v>
+        <v>-17563.9313</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0864</v>
+        <v>-0.08690000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>14.1252</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E12" s="1">
-        <v>7542.4534</v>
+        <v>7557.5455</v>
       </c>
       <c r="F12" s="1">
-        <v>646.3401</v>
+        <v>647.6291</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>106538.6628</v>
+        <v>106538.719</v>
       </c>
       <c r="I12" s="1">
-        <v>4123.3074</v>
+        <v>3723.8919</v>
       </c>
       <c r="J12" s="1">
-        <v>110661.9702</v>
+        <v>110262.6108</v>
       </c>
       <c r="K12" s="1">
-        <v>100894.2312</v>
+        <v>101300.9317</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3768</v>
+        <v>13.4039</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9129.683800000001</v>
+        <v>-9166.218800000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0421</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>14.1934</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>8188.7936</v>
+        <v>8205.1746</v>
       </c>
       <c r="F13" s="1">
-        <v>746.6997</v>
+        <v>748.2338</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116226.8224</v>
+        <v>116226.2985</v>
       </c>
       <c r="I13" s="1">
-        <v>4993.6235</v>
+        <v>4557.6731</v>
       </c>
       <c r="J13" s="1">
-        <v>121220.4459</v>
+        <v>120783.9716</v>
       </c>
       <c r="K13" s="1">
-        <v>110023.915</v>
+        <v>110467.1504</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4359</v>
+        <v>13.4631</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10598.2077</v>
+        <v>-10641.2313</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>14.1176</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E14" s="1">
-        <v>8935.4933</v>
+        <v>8953.4084</v>
       </c>
       <c r="F14" s="1">
-        <v>-8935.4933</v>
+        <v>-8953.4084</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126147.7197</v>
+        <v>126148.1525</v>
       </c>
       <c r="I14" s="1">
-        <v>4395.4158</v>
+        <v>3916.4418</v>
       </c>
       <c r="J14" s="1">
-        <v>130543.1355</v>
+        <v>130064.5943</v>
       </c>
       <c r="K14" s="1">
-        <v>120622.1228</v>
+        <v>121108.3817</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4992</v>
+        <v>13.5265</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3684.9571</v>
+        <v>3692.3286</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129832.6768</v>
+        <v>129840.481</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0052</v>
+        <v>-0.0055</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.962</v>
       </c>
       <c r="C2" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D2" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.2659</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E3" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="F3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8785.2027</v>
+        <v>8750.1072</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1215</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.4103</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E4" s="1">
-        <v>1531.4981</v>
+        <v>1528.4328</v>
       </c>
       <c r="F4" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19006.351</v>
+        <v>18930.4048</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0591</v>
+        <v>13.0853</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0118</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>12.3976</v>
       </c>
       <c r="C5" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D5" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E5" s="1">
-        <v>2337.2804</v>
+        <v>2332.6016</v>
       </c>
       <c r="F5" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28976.6676</v>
+        <v>28860.8136</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8354</v>
+        <v>12.8612</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9310.825800000001</v>
+        <v>-9312.2052</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.001</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.9013</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E6" s="1">
-        <v>3143.8881</v>
+        <v>3137.5991</v>
       </c>
       <c r="F6" s="1">
-        <v>828.5282</v>
+        <v>826.768</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40560.244</v>
+        <v>40398.1568</v>
       </c>
       <c r="I6" s="1">
-        <v>689.1742</v>
+        <v>687.7948</v>
       </c>
       <c r="J6" s="1">
-        <v>41249.4182</v>
+        <v>41085.9516</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7231</v>
+        <v>12.7486</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10689.1742</v>
+        <v>-10687.7948</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0583</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.3527</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E7" s="1">
-        <v>3972.4164</v>
+        <v>3964.367</v>
       </c>
       <c r="F7" s="1">
-        <v>692.9704</v>
+        <v>710.3673</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53042.4841</v>
+        <v>52829.155</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>53042.4841</v>
+        <v>52829.155</v>
       </c>
       <c r="K7" s="1">
-        <v>50689.1742</v>
+        <v>50687.7948</v>
       </c>
       <c r="L7" s="1">
-        <v>12.7603</v>
+        <v>12.7858</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9253.0252</v>
+        <v>-9504.358899999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.035</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.8804</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E8" s="1">
-        <v>4665.3867</v>
+        <v>4674.7343</v>
       </c>
       <c r="F8" s="1">
-        <v>610.3937</v>
+        <v>611.6337</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64757.4339</v>
+        <v>64757.2244</v>
       </c>
       <c r="I8" s="1">
-        <v>746.9748</v>
+        <v>495.6411</v>
       </c>
       <c r="J8" s="1">
-        <v>65504.4086</v>
+        <v>65252.8654</v>
       </c>
       <c r="K8" s="1">
-        <v>59942.1994</v>
+        <v>60192.1537</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8483</v>
+        <v>12.8761</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1787.5874</v>
+        <v>1783.9652</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6684.9207</v>
+        <v>-6722.7592</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0391</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.6268</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E9" s="1">
-        <v>5275.7804</v>
+        <v>5286.368</v>
       </c>
       <c r="F9" s="1">
-        <v>489.5539</v>
+        <v>490.4988</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77167.7844</v>
+        <v>77168.2861</v>
       </c>
       <c r="I9" s="1">
-        <v>4062.0541</v>
+        <v>3772.8818</v>
       </c>
       <c r="J9" s="1">
-        <v>81229.8385</v>
+        <v>80941.16800000001</v>
       </c>
       <c r="K9" s="1">
-        <v>68414.7075</v>
+        <v>68698.8781</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9677</v>
+        <v>12.9955</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7160.6067</v>
+        <v>-7188.7991</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07580000000000001</v>
+        <v>0.0756</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>15.3636</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E10" s="1">
-        <v>5765.3343</v>
+        <v>5776.8668</v>
       </c>
       <c r="F10" s="1">
-        <v>456.7307</v>
+        <v>457.6561</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>88576.2893</v>
+        <v>88576.12119999999</v>
       </c>
       <c r="I10" s="1">
-        <v>6901.4474</v>
+        <v>6584.0827</v>
       </c>
       <c r="J10" s="1">
-        <v>95477.7368</v>
+        <v>95160.20389999999</v>
       </c>
       <c r="K10" s="1">
-        <v>75575.3141</v>
+        <v>75887.67720000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1086</v>
+        <v>13.1365</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7017.0276</v>
+        <v>-7045.3415</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0466</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.8711</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E11" s="1">
-        <v>6222.0649</v>
+        <v>6234.5229</v>
       </c>
       <c r="F11" s="1">
-        <v>1433.5143</v>
+        <v>1405.7761</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>86306.88499999999</v>
+        <v>86306.995</v>
       </c>
       <c r="I11" s="1">
-        <v>9884.4198</v>
+        <v>9538.7412</v>
       </c>
       <c r="J11" s="1">
-        <v>96191.3048</v>
+        <v>95845.7362</v>
       </c>
       <c r="K11" s="1">
-        <v>82592.3417</v>
+        <v>82933.01880000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2741</v>
+        <v>13.3022</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2594.4004</v>
+        <v>2599.5901</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-17290.0194</v>
+        <v>-16939.1511</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.08799999999999999</v>
+        <v>-0.0886</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>14.1252</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E12" s="1">
-        <v>7655.5792</v>
+        <v>7640.299</v>
       </c>
       <c r="F12" s="1">
-        <v>743.0718000000001</v>
+        <v>775.1528</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108136.5875</v>
+        <v>107705.2954</v>
       </c>
       <c r="I12" s="1">
-        <v>2594.4004</v>
+        <v>2599.5901</v>
       </c>
       <c r="J12" s="1">
-        <v>110730.9879</v>
+        <v>110304.8855</v>
       </c>
       <c r="K12" s="1">
-        <v>102476.7615</v>
+        <v>102471.7599</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3859</v>
+        <v>13.412</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10496.0374</v>
+        <v>-10971.1256</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0428</v>
+        <v>0.0421</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>14.1934</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>8398.651</v>
+        <v>8415.4519</v>
       </c>
       <c r="F13" s="1">
-        <v>789.5713</v>
+        <v>791.1923</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119205.4129</v>
+        <v>119204.8757</v>
       </c>
       <c r="I13" s="1">
-        <v>2098.363</v>
+        <v>1628.4644</v>
       </c>
       <c r="J13" s="1">
-        <v>121303.7759</v>
+        <v>120833.3401</v>
       </c>
       <c r="K13" s="1">
-        <v>112972.7989</v>
+        <v>113442.8856</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4513</v>
+        <v>13.4803</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11206.7014</v>
+        <v>-11252.1784</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0047</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>14.1176</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E14" s="1">
-        <v>9188.222299999999</v>
+        <v>9206.6441</v>
       </c>
       <c r="F14" s="1">
-        <v>-9188.222299999999</v>
+        <v>-9206.6441</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129715.6471</v>
+        <v>129716.092</v>
       </c>
       <c r="I14" s="1">
-        <v>891.6616</v>
+        <v>376.2861</v>
       </c>
       <c r="J14" s="1">
-        <v>130607.3087</v>
+        <v>130092.3781</v>
       </c>
       <c r="K14" s="1">
-        <v>124179.5003</v>
+        <v>124695.064</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5151</v>
+        <v>13.544</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3779.3929</v>
+        <v>3786.9533</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133495.04</v>
+        <v>133503.0453</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5764</v>
+        <v>13.6036</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4725</v>
+        <v>13.4998</v>
       </c>
       <c r="E3" s="1">
-        <v>13.4859</v>
+        <v>13.5132</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4992</v>
+        <v>13.5265</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5151</v>
+        <v>13.544</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0292</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0953</v>
+        <v>0.0833</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0934</v>
+        <v>0.0824</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0951</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0968</v>
+        <v>0.0856</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0982</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1858</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1996</v>
+        <v>0.2013</v>
       </c>
       <c r="D5" s="3">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1914</v>
+        <v>0.1935</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1929</v>
+        <v>0.195</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1944</v>
+        <v>0.1964</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.0479</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3759</v>
+        <v>0.3127</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3847</v>
+        <v>0.3233</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3907</v>
+        <v>0.329</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3966</v>
+        <v>0.3346</v>
       </c>
       <c r="G6" s="4">
-        <v>0.4004</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2255</v>
+        <v>0.2166</v>
       </c>
       <c r="D7" s="3">
-        <v>0.241</v>
+        <v>0.2322</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2398</v>
+        <v>0.2309</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2387</v>
+        <v>0.2297</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2372</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8985.8964</v>
+        <v>8967.6602</v>
       </c>
       <c r="D8" s="1">
-        <v>8398.795099999999</v>
+        <v>8412.8439</v>
       </c>
       <c r="E8" s="1">
-        <v>8548.764499999999</v>
+        <v>8563.113300000001</v>
       </c>
       <c r="F8" s="1">
-        <v>8702.495699999999</v>
+        <v>8717.152099999999</v>
       </c>
       <c r="G8" s="1">
-        <v>8850.554899999999</v>
+        <v>8858.3033</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P30_KFSDIV.xlsx
+++ b/output/1Y_P30_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10101.8264</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0354</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1429</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1116</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.081</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
